--- a/biology/Botanique/Jardin_Claude-Debussy/Jardin_Claude-Debussy.xlsx
+++ b/biology/Botanique/Jardin_Claude-Debussy/Jardin_Claude-Debussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Claude-Debussy est un jardin public du 16e arrondissement de Paris, dans le quartier de la Porte-Dauphine.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin Claude-Debussy occupe le terre-plein central de l’avenue Chantemesse. Il est délimité par les deux chaussées parallèles de l'avenue Chantemesse, par le boulevard Lannes et par l’avenue du Maréchal-Fayolle. Il a pour adresse le 49, avenue du Maréchal-Fayolle[1],[2].
-Il est desservi par la ligne 2 à la station Porte Dauphine et par la ligne C du RER à la gare de l'avenue Foch[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Claude-Debussy occupe le terre-plein central de l’avenue Chantemesse. Il est délimité par les deux chaussées parallèles de l'avenue Chantemesse, par le boulevard Lannes et par l’avenue du Maréchal-Fayolle. Il a pour adresse le 49, avenue du Maréchal-Fayolle,.
+Il est desservi par la ligne 2 à la station Porte Dauphine et par la ligne C du RER à la gare de l'avenue Foch.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin rend hommage au compositeur français, Claude Debussy (1862-1918)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin rend hommage au compositeur français, Claude Debussy (1862-1918).
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il abrite « un cèdre pleureur, des marronniers, des cerisiers à fleurs [et] quelques rosiers »[2].
-Ouvert 24h/24, il compte une aire de mini-football pour les enfants de 4 à 10 ans, une aire de jeux, un bac à sable et un point d'eau potable[2].
-Le jardin est accessible aux personnes à mobilité réduite sur certaines zones[2].
-Les chiens y sont interdits[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il abrite « un cèdre pleureur, des marronniers, des cerisiers à fleurs [et] quelques rosiers ».
+Ouvert 24h/24, il compte une aire de mini-football pour les enfants de 4 à 10 ans, une aire de jeux, un bac à sable et un point d'eau potable.
+Le jardin est accessible aux personnes à mobilité réduite sur certaines zones.
+Les chiens y sont interdits.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est orné d'une fontaine, dite fontaine Claude-Debussy. Elle est réalisée en 1932 par les frères Jan et Joël Martel (1896-1966), en hommage au compositeur Claude Debussy. Il s'agit d'un miroir d'eau, surplombé d'une haute stèle ornée de bas-reliefs évoquant l'œuvre de l'artiste. De part et d'autre de la stèle sont installées deux statues de Muses. Figure aussi l'inscription : « À Claude Debussy. Musicien français ». À l'arrière se trouve un autre bas-relief, Claude Debussy au piano, entouré de ses amis et de ses interprètes[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est orné d'une fontaine, dite fontaine Claude-Debussy. Elle est réalisée en 1932 par les frères Jan et Joël Martel (1896-1966), en hommage au compositeur Claude Debussy. Il s'agit d'un miroir d'eau, surplombé d'une haute stèle ornée de bas-reliefs évoquant l'œuvre de l'artiste. De part et d'autre de la stèle sont installées deux statues de Muses. Figure aussi l'inscription : « À Claude Debussy. Musicien français ». À l'arrière se trouve un autre bas-relief, Claude Debussy au piano, entouré de ses amis et de ses interprètes.
 Le square longe le bois de Boulogne.
 </t>
         </is>
